--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_HAMPSHIRE_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_HAMPSHIRE_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C8">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C17">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C26">
@@ -747,7 +747,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C27">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C29">
@@ -812,7 +812,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C32">
@@ -851,7 +851,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C35">
@@ -877,7 +877,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C37">
@@ -908,7 +908,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C39">
@@ -934,7 +934,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C41">
@@ -965,7 +965,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C43">
@@ -1030,7 +1030,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C48">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C52">
@@ -1118,7 +1118,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C54">
@@ -1149,7 +1149,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C56">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C57">
@@ -1206,7 +1206,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C60">
@@ -1250,7 +1250,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C63">
@@ -1263,7 +1263,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C64">
@@ -1302,7 +1302,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C67">
@@ -1359,7 +1359,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C71">
@@ -1390,7 +1390,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C73">
@@ -1421,7 +1421,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C75">
@@ -1434,7 +1434,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C79">
@@ -1535,7 +1535,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C83">
@@ -1548,7 +1548,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C84">
@@ -1561,7 +1561,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C85">
@@ -1569,41 +1569,6 @@
       </c>
       <c r="D85">
         <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_HAMPSHIRE_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_HAMPSHIRE_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mitontic</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Oxchuc</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -1204,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -1274,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -1287,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -1300,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1388,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1419,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1450,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -1463,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1476,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1507,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -1520,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1533,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -1546,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
